--- a/Excel Data/IbgCaoCustomerCreation.xlsx
+++ b/Excel Data/IbgCaoCustomerCreation.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
